--- a/RVD_Predictor_Analysis/results/ExcelFiles/H1N1_Predictors.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/H1N1_Predictors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t xml:space="preserve">ABCG2</t>
   </si>
@@ -227,9 +227,18 @@
     <t xml:space="preserve">TTTY15</t>
   </si>
   <si>
+    <t xml:space="preserve">AGAP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALPL</t>
   </si>
   <si>
+    <t xml:space="preserve">APOBEC3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN3A2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD79B</t>
   </si>
   <si>
@@ -239,9 +248,15 @@
     <t xml:space="preserve">CHI3L1</t>
   </si>
   <si>
+    <t xml:space="preserve">ECHDC3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERO1B</t>
   </si>
   <si>
+    <t xml:space="preserve">FAM13A</t>
+  </si>
+  <si>
     <t xml:space="preserve">GALNT6</t>
   </si>
   <si>
@@ -251,6 +266,9 @@
     <t xml:space="preserve">GPX1</t>
   </si>
   <si>
+    <t xml:space="preserve">HLA-DPA1</t>
+  </si>
+  <si>
     <t xml:space="preserve">HNRNPH1</t>
   </si>
   <si>
@@ -284,15 +302,24 @@
     <t xml:space="preserve">PRKAR2B</t>
   </si>
   <si>
+    <t xml:space="preserve">RUNX3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC7A8</t>
   </si>
   <si>
     <t xml:space="preserve">SNORA21</t>
   </si>
   <si>
+    <t xml:space="preserve">SPATA20</t>
+  </si>
+  <si>
     <t xml:space="preserve">STRN3</t>
   </si>
   <si>
+    <t xml:space="preserve">TPP2</t>
+  </si>
+  <si>
     <t xml:space="preserve">YME1L1</t>
   </si>
   <si>
@@ -305,9 +332,15 @@
     <t xml:space="preserve">ACP2</t>
   </si>
   <si>
+    <t xml:space="preserve">ADM</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
+    <t xml:space="preserve">ASNS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BPGM</t>
   </si>
   <si>
@@ -317,21 +350,36 @@
     <t xml:space="preserve">CALD1</t>
   </si>
   <si>
+    <t xml:space="preserve">CCND1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD28</t>
   </si>
   <si>
     <t xml:space="preserve">CDC25B</t>
   </si>
   <si>
+    <t xml:space="preserve">DGAT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DHFR</t>
   </si>
   <si>
     <t xml:space="preserve">DHX16</t>
   </si>
   <si>
+    <t xml:space="preserve">DLG5</t>
+  </si>
+  <si>
     <t xml:space="preserve">EBP</t>
   </si>
   <si>
+    <t xml:space="preserve">ENDOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENO3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETV1</t>
   </si>
   <si>
@@ -413,6 +461,9 @@
     <t xml:space="preserve">PLOD2</t>
   </si>
   <si>
+    <t xml:space="preserve">PMPCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPP2R5B</t>
   </si>
   <si>
@@ -428,6 +479,15 @@
     <t xml:space="preserve">SEC14L1</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC25A37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNRPA</t>
   </si>
   <si>
@@ -446,12 +506,30 @@
     <t xml:space="preserve">TSPAN5</t>
   </si>
   <si>
+    <t xml:space="preserve">XYLT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNTN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMTOR2</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOC2A</t>
   </si>
   <si>
-    <t xml:space="preserve">ECHDC3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MARC1</t>
   </si>
   <si>
@@ -464,18 +542,12 @@
     <t xml:space="preserve">PRR5L</t>
   </si>
   <si>
-    <t xml:space="preserve">SPATA20</t>
-  </si>
-  <si>
     <t xml:space="preserve">TNFRSF21</t>
   </si>
   <si>
     <t xml:space="preserve">ACADVL</t>
   </si>
   <si>
-    <t xml:space="preserve">ADM</t>
-  </si>
-  <si>
     <t xml:space="preserve">CSF1</t>
   </si>
   <si>
@@ -542,7 +614,19 @@
     <t xml:space="preserve">VEGFA</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP2A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMH</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAPKAPK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSWIM8</t>
   </si>
 </sst>
 </file>
@@ -1759,6 +1843,146 @@
         <v>176</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
